--- a/German_Tales/Data/German_tales_JH.xlsx
+++ b/German_Tales/Data/German_tales_JH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DWA\German_Tales\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B7D77B-01ED-4FA3-A9DF-DB82E985E400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE27482-D7EF-4EC1-891F-535D0BFC9D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10147" uniqueCount="2058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10578" uniqueCount="2237">
   <si>
     <t>ID</t>
   </si>
@@ -6194,16 +6194,565 @@
   </si>
   <si>
     <t>Wie Jans Sckrôkamp nachtens iöver 'ne Bjieke* quamm.</t>
+  </si>
+  <si>
+    <t>Der Blinde Jost.</t>
+  </si>
+  <si>
+    <t>Knost und seine drei Söhne.</t>
+  </si>
+  <si>
+    <t>Bauernjunge.</t>
+  </si>
+  <si>
+    <t>De geschichte von den teggen-uurs-röüen.</t>
+  </si>
+  <si>
+    <t>Die Geschichte von dem Zehn-Uhrs-Hunde.</t>
+  </si>
+  <si>
+    <t>De geschichte van den abte, de in'n rawen verwandelt is.</t>
+  </si>
+  <si>
+    <t>Die Geschichte von dem Abte, der in einen Raben verwandelt ist.</t>
+  </si>
+  <si>
+    <t>De Hannöttje.</t>
+  </si>
+  <si>
+    <t>Der Heinrich Otto.</t>
+  </si>
+  <si>
+    <t>Wetterregel.</t>
+  </si>
+  <si>
+    <t>De Biärneske Hunne un de Boikske Hunne.</t>
+  </si>
+  <si>
+    <t>De nit dofte Klocke.</t>
+  </si>
+  <si>
+    <t>Die nicht getaufte Glocke.</t>
+  </si>
+  <si>
+    <t>Dei verwünskede Isel.</t>
+  </si>
+  <si>
+    <t>De Sündfliooth.</t>
+  </si>
+  <si>
+    <t>De Sündflauth.</t>
+  </si>
+  <si>
+    <t>An den gelehrten Mann im Heienlanne*.</t>
+  </si>
+  <si>
+    <t>*(Hede: oder Werg:lande eyem. Graffch. Ravensberg)</t>
+  </si>
+  <si>
+    <t>An den gelehrten Mann im Heideland.</t>
+  </si>
+  <si>
+    <t>De smachterje Teidt.</t>
+  </si>
+  <si>
+    <t>Die hungrige Zeit.</t>
+  </si>
+  <si>
+    <t>De Deîf un de Scharprichterknächt.</t>
+  </si>
+  <si>
+    <t>Eist de Peîp in Brand un dann 'n Ihsel out'n Grawen.</t>
+  </si>
+  <si>
+    <t>Der Dieb und der Scharfrichterknecht.</t>
+  </si>
+  <si>
+    <t>Hermen.</t>
+  </si>
+  <si>
+    <t>{warscheinlich Korvey}</t>
+  </si>
+  <si>
+    <t>Dai Köster un dai Buern.</t>
+  </si>
+  <si>
+    <t>Hermann.</t>
+  </si>
+  <si>
+    <t>Junge, seuk Spänne.</t>
+  </si>
+  <si>
+    <t>Hänschen satt im Schoastenstein.</t>
+  </si>
+  <si>
+    <t>Heinrich un Marleincke.</t>
+  </si>
+  <si>
+    <t>Heinrich und Marleincke.</t>
+  </si>
+  <si>
+    <t>De Wüörpeltharen.</t>
+  </si>
+  <si>
+    <t>Der Würfelturm.</t>
+  </si>
+  <si>
+    <t>De Kögge-Krawall.</t>
+  </si>
+  <si>
+    <t>Der Kühe-Krawall.</t>
+  </si>
+  <si>
+    <t>Dat este Stücke.</t>
+  </si>
+  <si>
+    <t>Das erste Stück.</t>
+  </si>
+  <si>
+    <t>Dat twidde Stücke.</t>
+  </si>
+  <si>
+    <t>Das zweite Stück.</t>
+  </si>
+  <si>
+    <t>Dat dridde Stücke.</t>
+  </si>
+  <si>
+    <t>Das dritte Stück.</t>
+  </si>
+  <si>
+    <t>Dat veerde Stücke.</t>
+  </si>
+  <si>
+    <t>Das vierte Stück.</t>
+  </si>
+  <si>
+    <t>Wetterregeln und Sprüchwörter.</t>
+  </si>
+  <si>
+    <t>Wtterregeln und Sprichwörter.</t>
+  </si>
+  <si>
+    <t>Sprüchwörter und Redensarten.</t>
+  </si>
+  <si>
+    <t>Sprichwörter und Redensarten.</t>
+  </si>
+  <si>
+    <t>De Hühnen upp 'er Schwaalenborgk.</t>
+  </si>
+  <si>
+    <t>Die Hühnen auf der Schwalenburg.</t>
+  </si>
+  <si>
+    <t>Sage von den Hühnen zu Schwalenfeld.</t>
+  </si>
+  <si>
+    <t>Dai Prins un dat alde Wihf.</t>
+  </si>
+  <si>
+    <t>Der Prinz und das alte Weib.</t>
+  </si>
+  <si>
+    <t>Willgen.</t>
+  </si>
+  <si>
+    <t>Willingen.</t>
+  </si>
+  <si>
+    <t>Sage von den Hühnen zu Lengefeld, die sich an den daselbst befindlichen sogenannten Hühnenkeller knüpften.</t>
+  </si>
+  <si>
+    <t>Sprichwörter aus dem Upplande.</t>
+  </si>
+  <si>
+    <t>De Eetegeck.</t>
+  </si>
+  <si>
+    <t>(Eßgeck, Fresser)</t>
+  </si>
+  <si>
+    <t>TAB</t>
+  </si>
+  <si>
+    <t>Friedrich, drauf aus d. i. auf Madchen</t>
+  </si>
+  <si>
+    <t>Frieder, drupp ut.</t>
+  </si>
+  <si>
+    <t>Liesbeth to buten.</t>
+  </si>
+  <si>
+    <t>Liesbeth nach draußen.</t>
+  </si>
+  <si>
+    <t>De gräune Haase.</t>
+  </si>
+  <si>
+    <t>Der grüne Hase.</t>
+  </si>
+  <si>
+    <t>Dei verwünskede Frogge.</t>
+  </si>
+  <si>
+    <t>Die verswunschene Frau.</t>
+  </si>
+  <si>
+    <t>Wirwülwe.</t>
+  </si>
+  <si>
+    <t>Wehrwölfe.</t>
+  </si>
+  <si>
+    <t>De Heaspersche Kukuk.</t>
+  </si>
+  <si>
+    <t>Sprichwörter</t>
+  </si>
+  <si>
+    <t>Ende gut, alles Gut.</t>
+  </si>
+  <si>
+    <t>Enge gued, alles gued.</t>
+  </si>
+  <si>
+    <t>De hoele stein bei Velmere.</t>
+  </si>
+  <si>
+    <t>Der hohle Stein bei Velmere.</t>
+  </si>
+  <si>
+    <t>Met den wülwen mor me huilen.</t>
+  </si>
+  <si>
+    <t>Mit den Wölfen muss man heulen.</t>
+  </si>
+  <si>
+    <t>Van diär Gründung diär Staadt Breilen.</t>
+  </si>
+  <si>
+    <t>Von der Gründung der Stadt Brilon.</t>
+  </si>
+  <si>
+    <t>Up Buorbiärgs Kiärkhuof.</t>
+  </si>
+  <si>
+    <t>Auf Borbergs Kirchhof.</t>
+  </si>
+  <si>
+    <t>Dei Hinrichtunge.</t>
+  </si>
+  <si>
+    <t>Die Hinrichtung.</t>
+  </si>
+  <si>
+    <t>Die Schäpersmann.</t>
+  </si>
+  <si>
+    <t>Der Schäfersmann.</t>
+  </si>
+  <si>
+    <t>De Rodlinker.</t>
+  </si>
+  <si>
+    <t>O Jaust, wat bist dou woal deran.</t>
+  </si>
+  <si>
+    <t>Dai Growe Ruthenburg.</t>
+  </si>
+  <si>
+    <t>Der Graf Ruthenburg.</t>
+  </si>
+  <si>
+    <t>Dai buissende Soile.</t>
+  </si>
+  <si>
+    <t>Die beißende Seele.</t>
+  </si>
+  <si>
+    <t>Dai witte Juffer.</t>
+  </si>
+  <si>
+    <t>Die Weiße Jungfer.</t>
+  </si>
+  <si>
+    <t>Dai Pasteör un suine Hiüshöllerske.</t>
+  </si>
+  <si>
+    <t>Der Pastor und seine Haushälterin.</t>
+  </si>
+  <si>
+    <t>Sünt Poitrus un dai Paderböärner.</t>
+  </si>
+  <si>
+    <t>Sankt Petrus und der Paderborner.</t>
+  </si>
+  <si>
+    <t>Waigenlaid.</t>
+  </si>
+  <si>
+    <t>{davor fehlt ein Titel}</t>
+  </si>
+  <si>
+    <t>Maikäfer flieg.</t>
+  </si>
+  <si>
+    <t>Maikawel fluig.</t>
+  </si>
+  <si>
+    <t>De åiwige Jiäger.</t>
+  </si>
+  <si>
+    <t>Derr ewige Jäger.</t>
+  </si>
+  <si>
+    <t>Lied vom Riesen Goliath.</t>
+  </si>
+  <si>
+    <t>Hinreifs un Tün's.</t>
+  </si>
+  <si>
+    <t>Iek was säu lang en armen mann.</t>
+  </si>
+  <si>
+    <t>Ich wahr sau lange ein armer Mann.</t>
+  </si>
+  <si>
+    <t>Din kleine, kleine Klünterken.</t>
+  </si>
+  <si>
+    <t>De Kuckuck op 'me tinne sat.</t>
+  </si>
+  <si>
+    <t>Der Kuckuck auf einer Tanne saß.</t>
+  </si>
+  <si>
+    <t>Jehänsken sat im Schoatstein.</t>
+  </si>
+  <si>
+    <t>Johännschen saß im Schornstein.</t>
+  </si>
+  <si>
+    <t>Kenn ui ne nit, kenn ui ne nit.</t>
+  </si>
+  <si>
+    <t>Kennt ihr ihn nicht, kennt ihr ihn nicht?</t>
+  </si>
+  <si>
+    <t>Ruffepuffei.</t>
+  </si>
+  <si>
+    <t>Slap, kinneken, slap.</t>
+  </si>
+  <si>
+    <t>Schlaf Kindlein, Schlaf.</t>
+  </si>
+  <si>
+    <t>Eija popeija, sla Kuifelken däut.</t>
+  </si>
+  <si>
+    <t>Hirtenlied aus der Soester Börde.</t>
+  </si>
+  <si>
+    <t>Ein Hirtenleid aus dem Süderlande (Sauerlande).</t>
+  </si>
+  <si>
+    <t>Üff' iek wiäg genk.</t>
+  </si>
+  <si>
+    <t>Rint, rint, Sunnenfuegel.</t>
+  </si>
+  <si>
+    <t>Hervor, hervor,Sennenvogel.</t>
+  </si>
+  <si>
+    <t>Einmal ist keinmal.</t>
+  </si>
+  <si>
+    <t>Sprichwörter, Wetterregeln und Redensarten.</t>
+  </si>
+  <si>
+    <t>Sprüchwörter, Wetterregeln und Redensarten.</t>
+  </si>
+  <si>
+    <t>Hänsken op en Schoarstäin sat.</t>
+  </si>
+  <si>
+    <t>Hänschen saß auf einem Schornstein.</t>
+  </si>
+  <si>
+    <t>Die räuse.</t>
+  </si>
+  <si>
+    <t>Die Role.</t>
+  </si>
+  <si>
+    <t>Bauernregeln</t>
+  </si>
+  <si>
+    <t>Hänsken in dieam Schoetstaine.</t>
+  </si>
+  <si>
+    <t>Hänschen in dem Schornsteine.</t>
+  </si>
+  <si>
+    <t>De Foss, de Fäuermann* un de Wulf.</t>
+  </si>
+  <si>
+    <t>Die [Foss] der Furmann und der Wolf.</t>
+  </si>
+  <si>
+    <t>Volkslied</t>
+  </si>
+  <si>
+    <t>Sippe, sippe, sape.</t>
+  </si>
+  <si>
+    <t>Räthsel.</t>
+  </si>
+  <si>
+    <t>Rätsel</t>
+  </si>
+  <si>
+    <t>Jehann van Dünskede.</t>
+  </si>
+  <si>
+    <t>De klocke te Attendorn.</t>
+  </si>
+  <si>
+    <t>Van diam Wiewe wat sin Mul in Fallen* lachde#.</t>
+  </si>
+  <si>
+    <t>Von dem Weibe, was sein Mund in Falten legte.</t>
+  </si>
+  <si>
+    <t>Beer'lthus.</t>
+  </si>
+  <si>
+    <t>Volkslieder.</t>
+  </si>
+  <si>
+    <t>Sprüechwöder.</t>
+  </si>
+  <si>
+    <t>De Dreulzer Hochtiet.</t>
+  </si>
+  <si>
+    <t>Kattsillers un Pannenklöppers.</t>
+  </si>
+  <si>
+    <t>Katzenschinder und Pannenklöppers.</t>
+  </si>
+  <si>
+    <t>R Dreulzer un 'n Olper.</t>
+  </si>
+  <si>
+    <t>De Eckbaum to Strohen.</t>
+  </si>
+  <si>
+    <t>Der Eckbaum Nach Strohen.</t>
+  </si>
+  <si>
+    <t>Der Drolshagener und ein Olper.</t>
+  </si>
+  <si>
+    <t>Die Drolshagener Hochzeit.</t>
+  </si>
+  <si>
+    <t>Lüürmanns Dink.</t>
+  </si>
+  <si>
+    <t>Pinkster Blome.</t>
+  </si>
+  <si>
+    <t>Pfingstblume.</t>
+  </si>
+  <si>
+    <t>Martinslied</t>
+  </si>
+  <si>
+    <t>Redensarten der Zechbrüder.</t>
+  </si>
+  <si>
+    <t>Das Volkslied auf Hermann, wie es um die Grotenburg herum lautet.</t>
+  </si>
+  <si>
+    <t>Wiegenlieder.</t>
+  </si>
+  <si>
+    <t>Sprüchwort.</t>
+  </si>
+  <si>
+    <t>Sprichwort.</t>
+  </si>
+  <si>
+    <t>Aberglaube</t>
+  </si>
+  <si>
+    <t>Mundart von Thüle</t>
+  </si>
+  <si>
+    <t>Wetterregeln und Sprichwörter.</t>
+  </si>
+  <si>
+    <t>Kinder-Necklied.</t>
+  </si>
+  <si>
+    <t>Kindernecklied</t>
+  </si>
+  <si>
+    <t>De Wiärwulf.</t>
+  </si>
+  <si>
+    <t>Der Werwolf</t>
+  </si>
+  <si>
+    <t>Kind, sühs du mi nich.</t>
+  </si>
+  <si>
+    <t>Kind, siehst du mich nicht?</t>
+  </si>
+  <si>
+    <t>Eck sitt' an de Getau.</t>
+  </si>
+  <si>
+    <t>De Bader.</t>
+  </si>
+  <si>
+    <t>De Kuallendriwer.</t>
+  </si>
+  <si>
+    <t>Der Kohlenführer</t>
+  </si>
+  <si>
+    <t>Ich sitze am Webstuhl.</t>
+  </si>
+  <si>
+    <t>Rä+Q937:R969thsel.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6235,9 +6784,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -6536,8 +7097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E826" workbookViewId="0">
-      <selection activeCell="Q851" sqref="Q851"/>
+    <sheetView tabSelected="1" topLeftCell="A969" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S959" sqref="S959"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41732,6 +42293,12 @@
       <c r="Q843" t="s">
         <v>2046</v>
       </c>
+      <c r="R843" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S843" t="s">
+        <v>2056</v>
+      </c>
     </row>
     <row r="844" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A844" s="1">
@@ -41838,6 +42405,12 @@
       <c r="Q845" t="s">
         <v>2048</v>
       </c>
+      <c r="R845" t="s">
+        <v>2058</v>
+      </c>
+      <c r="S845" t="s">
+        <v>2056</v>
+      </c>
     </row>
     <row r="846" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A846" s="1">
@@ -42000,8 +42573,14 @@
       <c r="Q848" t="s">
         <v>2052</v>
       </c>
-    </row>
-    <row r="849" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="R848" t="s">
+        <v>2060</v>
+      </c>
+      <c r="S848" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="849" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A849" s="1">
         <v>848</v>
       </c>
@@ -42057,7 +42636,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="850" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A850" s="1">
         <v>849</v>
       </c>
@@ -42088,6 +42667,9 @@
       <c r="J850" t="s">
         <v>22</v>
       </c>
+      <c r="L850" t="s">
+        <v>2030</v>
+      </c>
       <c r="M850" t="s">
         <v>1389</v>
       </c>
@@ -42104,7 +42686,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="851" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A851" s="1">
         <v>850</v>
       </c>
@@ -42135,6 +42717,9 @@
       <c r="J851" t="s">
         <v>22</v>
       </c>
+      <c r="L851" t="s">
+        <v>2030</v>
+      </c>
       <c r="M851" t="s">
         <v>1393</v>
       </c>
@@ -42147,8 +42732,17 @@
       <c r="P851" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="852" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q851" t="s">
+        <v>2061</v>
+      </c>
+      <c r="R851" t="s">
+        <v>2062</v>
+      </c>
+      <c r="S851" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="852" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A852" s="1">
         <v>851</v>
       </c>
@@ -42179,6 +42773,9 @@
       <c r="J852" t="s">
         <v>22</v>
       </c>
+      <c r="L852" t="s">
+        <v>2030</v>
+      </c>
       <c r="M852" t="s">
         <v>1393</v>
       </c>
@@ -42191,8 +42788,17 @@
       <c r="P852" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="853" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q852" t="s">
+        <v>2063</v>
+      </c>
+      <c r="R852" t="s">
+        <v>2064</v>
+      </c>
+      <c r="S852" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="853" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A853" s="1">
         <v>852</v>
       </c>
@@ -42223,6 +42829,9 @@
       <c r="J853" t="s">
         <v>22</v>
       </c>
+      <c r="L853" t="s">
+        <v>2030</v>
+      </c>
       <c r="M853" t="s">
         <v>1397</v>
       </c>
@@ -42235,8 +42844,17 @@
       <c r="P853" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="854" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q853" t="s">
+        <v>2065</v>
+      </c>
+      <c r="R853" t="s">
+        <v>2066</v>
+      </c>
+      <c r="S853" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="854" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A854" s="1">
         <v>853</v>
       </c>
@@ -42267,6 +42885,9 @@
       <c r="J854" t="s">
         <v>22</v>
       </c>
+      <c r="L854" t="s">
+        <v>2030</v>
+      </c>
       <c r="M854" t="s">
         <v>1397</v>
       </c>
@@ -42279,8 +42900,17 @@
       <c r="P854" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="855" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q854" t="s">
+        <v>2067</v>
+      </c>
+      <c r="R854" t="s">
+        <v>2067</v>
+      </c>
+      <c r="S854" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="855" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A855" s="1">
         <v>854</v>
       </c>
@@ -42311,6 +42941,9 @@
       <c r="J855" t="s">
         <v>22</v>
       </c>
+      <c r="L855" t="s">
+        <v>2030</v>
+      </c>
       <c r="M855" t="s">
         <v>1401</v>
       </c>
@@ -42323,8 +42956,14 @@
       <c r="P855" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="856" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q855" t="s">
+        <v>2068</v>
+      </c>
+      <c r="S855" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="856" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A856" s="1">
         <v>855</v>
       </c>
@@ -42355,6 +42994,9 @@
       <c r="J856" t="s">
         <v>22</v>
       </c>
+      <c r="L856" t="s">
+        <v>2030</v>
+      </c>
       <c r="M856" t="s">
         <v>1401</v>
       </c>
@@ -42367,8 +43009,17 @@
       <c r="P856" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="857" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q856" t="s">
+        <v>2069</v>
+      </c>
+      <c r="R856" t="s">
+        <v>2070</v>
+      </c>
+      <c r="S856" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="857" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A857" s="1">
         <v>856</v>
       </c>
@@ -42399,6 +43050,9 @@
       <c r="J857" t="s">
         <v>22</v>
       </c>
+      <c r="L857" t="s">
+        <v>2030</v>
+      </c>
       <c r="M857" t="s">
         <v>1405</v>
       </c>
@@ -42411,8 +43065,14 @@
       <c r="P857" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="858" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q857" t="s">
+        <v>2071</v>
+      </c>
+      <c r="R857">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="858" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A858" s="1">
         <v>857</v>
       </c>
@@ -42443,6 +43103,9 @@
       <c r="J858" t="s">
         <v>22</v>
       </c>
+      <c r="L858" t="s">
+        <v>2030</v>
+      </c>
       <c r="M858" t="s">
         <v>1409</v>
       </c>
@@ -42455,8 +43118,14 @@
       <c r="P858" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="859" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q858" t="s">
+        <v>2072</v>
+      </c>
+      <c r="R858">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="859" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A859" s="1">
         <v>858</v>
       </c>
@@ -42487,6 +43156,9 @@
       <c r="J859" t="s">
         <v>21</v>
       </c>
+      <c r="L859" t="s">
+        <v>2030</v>
+      </c>
       <c r="M859" t="s">
         <v>1409</v>
       </c>
@@ -42499,8 +43171,14 @@
       <c r="P859" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="860" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q859" t="s">
+        <v>2073</v>
+      </c>
+      <c r="R859">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="860" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A860" s="1">
         <v>859</v>
       </c>
@@ -42531,6 +43209,9 @@
       <c r="J860" t="s">
         <v>22</v>
       </c>
+      <c r="L860" t="s">
+        <v>2030</v>
+      </c>
       <c r="M860" t="s">
         <v>1401</v>
       </c>
@@ -42543,8 +43224,20 @@
       <c r="P860" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="861" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q860" t="s">
+        <v>2074</v>
+      </c>
+      <c r="R860" t="s">
+        <v>2076</v>
+      </c>
+      <c r="S860" t="s">
+        <v>2056</v>
+      </c>
+      <c r="T860" s="2" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="861" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A861" s="1">
         <v>860</v>
       </c>
@@ -42575,6 +43268,9 @@
       <c r="J861" t="s">
         <v>22</v>
       </c>
+      <c r="L861" t="s">
+        <v>2030</v>
+      </c>
       <c r="M861" t="s">
         <v>1401</v>
       </c>
@@ -42587,8 +43283,17 @@
       <c r="P861" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="862" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q861" t="s">
+        <v>2077</v>
+      </c>
+      <c r="R861" t="s">
+        <v>2078</v>
+      </c>
+      <c r="S861" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="862" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A862" s="1">
         <v>861</v>
       </c>
@@ -42619,6 +43324,9 @@
       <c r="J862" t="s">
         <v>22</v>
       </c>
+      <c r="L862" t="s">
+        <v>2030</v>
+      </c>
       <c r="M862" t="s">
         <v>1401</v>
       </c>
@@ -42631,8 +43339,17 @@
       <c r="P862" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="863" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q862" t="s">
+        <v>2079</v>
+      </c>
+      <c r="R862" t="s">
+        <v>2081</v>
+      </c>
+      <c r="S862" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="863" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A863" s="1">
         <v>862</v>
       </c>
@@ -42663,6 +43380,9 @@
       <c r="J863" t="s">
         <v>22</v>
       </c>
+      <c r="L863" t="s">
+        <v>2030</v>
+      </c>
       <c r="M863" t="s">
         <v>1401</v>
       </c>
@@ -42675,8 +43395,14 @@
       <c r="P863" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="864" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q863" t="s">
+        <v>2080</v>
+      </c>
+      <c r="R863">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="864" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A864" s="1">
         <v>863</v>
       </c>
@@ -42707,6 +43433,9 @@
       <c r="J864" t="s">
         <v>22</v>
       </c>
+      <c r="L864" t="s">
+        <v>2030</v>
+      </c>
       <c r="M864" t="s">
         <v>1414</v>
       </c>
@@ -42719,8 +43448,17 @@
       <c r="P864" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="865" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q864" t="s">
+        <v>2082</v>
+      </c>
+      <c r="R864" t="s">
+        <v>2085</v>
+      </c>
+      <c r="S864" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="865" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A865" s="1">
         <v>864</v>
       </c>
@@ -42751,6 +43489,9 @@
       <c r="J865" t="s">
         <v>22</v>
       </c>
+      <c r="L865" t="s">
+        <v>2030</v>
+      </c>
       <c r="M865" t="s">
         <v>1418</v>
       </c>
@@ -42763,8 +43504,17 @@
       <c r="P865" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="866" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q865" t="s">
+        <v>2084</v>
+      </c>
+      <c r="R865">
+        <v>999</v>
+      </c>
+      <c r="T865" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="866" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A866" s="1">
         <v>865</v>
       </c>
@@ -42795,6 +43545,9 @@
       <c r="J866" t="s">
         <v>22</v>
       </c>
+      <c r="L866" t="s">
+        <v>2030</v>
+      </c>
       <c r="M866" t="s">
         <v>1418</v>
       </c>
@@ -42807,8 +43560,14 @@
       <c r="P866" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="867" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q866" t="s">
+        <v>2086</v>
+      </c>
+      <c r="R866">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="867" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A867" s="1">
         <v>866</v>
       </c>
@@ -42839,6 +43598,9 @@
       <c r="J867" t="s">
         <v>22</v>
       </c>
+      <c r="L867" t="s">
+        <v>2030</v>
+      </c>
       <c r="M867" t="s">
         <v>1421</v>
       </c>
@@ -42851,8 +43613,17 @@
       <c r="P867" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="868" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q867" t="s">
+        <v>2087</v>
+      </c>
+      <c r="R867" t="s">
+        <v>2042</v>
+      </c>
+      <c r="S867" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="868" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A868" s="1">
         <v>867</v>
       </c>
@@ -42883,6 +43654,9 @@
       <c r="J868" t="s">
         <v>22</v>
       </c>
+      <c r="L868" t="s">
+        <v>2030</v>
+      </c>
       <c r="M868" t="s">
         <v>1425</v>
       </c>
@@ -42895,8 +43669,17 @@
       <c r="P868" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="869" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q868" t="s">
+        <v>2088</v>
+      </c>
+      <c r="R868" t="s">
+        <v>2089</v>
+      </c>
+      <c r="S868" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="869" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A869" s="1">
         <v>868</v>
       </c>
@@ -42927,6 +43710,9 @@
       <c r="J869" t="s">
         <v>22</v>
       </c>
+      <c r="L869" t="s">
+        <v>2030</v>
+      </c>
       <c r="M869" t="s">
         <v>1429</v>
       </c>
@@ -42939,8 +43725,17 @@
       <c r="P869" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="870" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q869" t="s">
+        <v>2090</v>
+      </c>
+      <c r="R869" t="s">
+        <v>2091</v>
+      </c>
+      <c r="S869" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="870" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A870" s="1">
         <v>869</v>
       </c>
@@ -42971,6 +43766,9 @@
       <c r="J870" t="s">
         <v>21</v>
       </c>
+      <c r="L870" t="s">
+        <v>2030</v>
+      </c>
       <c r="M870" t="s">
         <v>1429</v>
       </c>
@@ -42983,8 +43781,17 @@
       <c r="P870" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="871" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q870" t="s">
+        <v>2092</v>
+      </c>
+      <c r="R870" t="s">
+        <v>2093</v>
+      </c>
+      <c r="S870" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="871" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A871" s="1">
         <v>870</v>
       </c>
@@ -43015,6 +43822,9 @@
       <c r="J871" t="s">
         <v>22</v>
       </c>
+      <c r="L871" t="s">
+        <v>2030</v>
+      </c>
       <c r="M871" t="s">
         <v>1429</v>
       </c>
@@ -43027,8 +43837,17 @@
       <c r="P871" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="872" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q871" t="s">
+        <v>2094</v>
+      </c>
+      <c r="R871" t="s">
+        <v>2095</v>
+      </c>
+      <c r="S871" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="872" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A872" s="1">
         <v>871</v>
       </c>
@@ -43059,6 +43878,9 @@
       <c r="J872" t="s">
         <v>22</v>
       </c>
+      <c r="L872" t="s">
+        <v>2030</v>
+      </c>
       <c r="M872" t="s">
         <v>1429</v>
       </c>
@@ -43071,8 +43893,17 @@
       <c r="P872" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="873" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q872" t="s">
+        <v>2096</v>
+      </c>
+      <c r="R872" t="s">
+        <v>2097</v>
+      </c>
+      <c r="S872" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="873" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A873" s="1">
         <v>872</v>
       </c>
@@ -43103,6 +43934,9 @@
       <c r="J873" t="s">
         <v>22</v>
       </c>
+      <c r="L873" t="s">
+        <v>2030</v>
+      </c>
       <c r="M873" t="s">
         <v>1429</v>
       </c>
@@ -43115,8 +43949,17 @@
       <c r="P873" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="874" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q873" t="s">
+        <v>2098</v>
+      </c>
+      <c r="R873" t="s">
+        <v>2099</v>
+      </c>
+      <c r="S873" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="874" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A874" s="1">
         <v>873</v>
       </c>
@@ -43147,6 +43990,9 @@
       <c r="J874" t="s">
         <v>22</v>
       </c>
+      <c r="L874" t="s">
+        <v>2030</v>
+      </c>
       <c r="M874" t="s">
         <v>1429</v>
       </c>
@@ -43159,8 +44005,17 @@
       <c r="P874" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="875" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q874" t="s">
+        <v>2100</v>
+      </c>
+      <c r="R874" t="s">
+        <v>2101</v>
+      </c>
+      <c r="S874" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="875" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A875" s="1">
         <v>874</v>
       </c>
@@ -43191,6 +44046,9 @@
       <c r="J875" t="s">
         <v>22</v>
       </c>
+      <c r="L875" t="s">
+        <v>2030</v>
+      </c>
       <c r="M875" t="s">
         <v>1433</v>
       </c>
@@ -43203,8 +44061,17 @@
       <c r="P875" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="876" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q875" t="s">
+        <v>2102</v>
+      </c>
+      <c r="R875" t="s">
+        <v>2103</v>
+      </c>
+      <c r="S875" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="876" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A876" s="1">
         <v>875</v>
       </c>
@@ -43235,6 +44102,9 @@
       <c r="J876" t="s">
         <v>22</v>
       </c>
+      <c r="L876" t="s">
+        <v>2030</v>
+      </c>
       <c r="M876" t="s">
         <v>1433</v>
       </c>
@@ -43247,8 +44117,17 @@
       <c r="P876" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="877" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q876" t="s">
+        <v>2104</v>
+      </c>
+      <c r="R876" t="s">
+        <v>2105</v>
+      </c>
+      <c r="S876" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="877" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A877" s="1">
         <v>876</v>
       </c>
@@ -43279,6 +44158,9 @@
       <c r="J877" t="s">
         <v>22</v>
       </c>
+      <c r="L877" t="s">
+        <v>2030</v>
+      </c>
       <c r="M877" t="s">
         <v>1438</v>
       </c>
@@ -43291,8 +44173,17 @@
       <c r="P877" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="878" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q877" t="s">
+        <v>2106</v>
+      </c>
+      <c r="R877" t="s">
+        <v>2107</v>
+      </c>
+      <c r="S877" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="878" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A878" s="1">
         <v>877</v>
       </c>
@@ -43323,6 +44214,9 @@
       <c r="J878" t="s">
         <v>22</v>
       </c>
+      <c r="L878" t="s">
+        <v>2030</v>
+      </c>
       <c r="M878" t="s">
         <v>1438</v>
       </c>
@@ -43335,8 +44229,17 @@
       <c r="P878" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="879" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q878" t="s">
+        <v>2108</v>
+      </c>
+      <c r="R878" t="s">
+        <v>2108</v>
+      </c>
+      <c r="S878" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="879" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A879" s="1">
         <v>878</v>
       </c>
@@ -43367,6 +44270,9 @@
       <c r="J879" t="s">
         <v>22</v>
       </c>
+      <c r="L879" t="s">
+        <v>2030</v>
+      </c>
       <c r="M879" t="s">
         <v>1442</v>
       </c>
@@ -43379,8 +44285,17 @@
       <c r="P879" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="880" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q879" t="s">
+        <v>2109</v>
+      </c>
+      <c r="R879" t="s">
+        <v>2110</v>
+      </c>
+      <c r="S879" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="880" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A880" s="1">
         <v>879</v>
       </c>
@@ -43411,6 +44326,9 @@
       <c r="J880" t="s">
         <v>22</v>
       </c>
+      <c r="L880" t="s">
+        <v>2030</v>
+      </c>
       <c r="M880" t="s">
         <v>1446</v>
       </c>
@@ -43423,8 +44341,17 @@
       <c r="P880" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="881" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q880" t="s">
+        <v>2111</v>
+      </c>
+      <c r="R880" t="s">
+        <v>2112</v>
+      </c>
+      <c r="S880" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="881" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A881" s="1">
         <v>880</v>
       </c>
@@ -43455,6 +44382,9 @@
       <c r="J881" t="s">
         <v>22</v>
       </c>
+      <c r="L881" t="s">
+        <v>2030</v>
+      </c>
       <c r="M881" t="s">
         <v>1450</v>
       </c>
@@ -43467,8 +44397,14 @@
       <c r="P881" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="882" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q881" t="s">
+        <v>2113</v>
+      </c>
+      <c r="R881">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="882" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A882" s="1">
         <v>881</v>
       </c>
@@ -43499,6 +44435,9 @@
       <c r="J882" t="s">
         <v>21</v>
       </c>
+      <c r="L882" t="s">
+        <v>2030</v>
+      </c>
       <c r="M882" t="s">
         <v>1450</v>
       </c>
@@ -43511,8 +44450,17 @@
       <c r="P882" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="883" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q882" t="s">
+        <v>2114</v>
+      </c>
+      <c r="R882" t="s">
+        <v>2114</v>
+      </c>
+      <c r="S882" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="883" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A883" s="1">
         <v>882</v>
       </c>
@@ -43543,6 +44491,9 @@
       <c r="J883" t="s">
         <v>22</v>
       </c>
+      <c r="L883" t="s">
+        <v>2030</v>
+      </c>
       <c r="M883" t="s">
         <v>1450</v>
       </c>
@@ -43555,8 +44506,17 @@
       <c r="P883" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="884" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q883" t="s">
+        <v>2115</v>
+      </c>
+      <c r="R883" s="2" t="s">
+        <v>2116</v>
+      </c>
+      <c r="S883" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="884" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A884" s="1">
         <v>883</v>
       </c>
@@ -43587,6 +44547,9 @@
       <c r="J884" t="s">
         <v>22</v>
       </c>
+      <c r="L884" t="s">
+        <v>2030</v>
+      </c>
       <c r="M884" t="s">
         <v>1450</v>
       </c>
@@ -43599,8 +44562,17 @@
       <c r="P884" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="885" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q884" t="s">
+        <v>2119</v>
+      </c>
+      <c r="R884" t="s">
+        <v>2118</v>
+      </c>
+      <c r="S884" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="885" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A885" s="1">
         <v>884</v>
       </c>
@@ -43631,6 +44603,9 @@
       <c r="J885" t="s">
         <v>22</v>
       </c>
+      <c r="L885" t="s">
+        <v>2030</v>
+      </c>
       <c r="M885" t="s">
         <v>1450</v>
       </c>
@@ -43643,8 +44618,17 @@
       <c r="P885" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="886" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q885" t="s">
+        <v>2120</v>
+      </c>
+      <c r="R885" t="s">
+        <v>2121</v>
+      </c>
+      <c r="S885" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="886" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A886" s="1">
         <v>885</v>
       </c>
@@ -43675,6 +44659,9 @@
       <c r="J886" t="s">
         <v>22</v>
       </c>
+      <c r="L886" t="s">
+        <v>2030</v>
+      </c>
       <c r="M886" t="s">
         <v>1454</v>
       </c>
@@ -43687,8 +44674,17 @@
       <c r="P886" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="887" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q886" t="s">
+        <v>2122</v>
+      </c>
+      <c r="R886" t="s">
+        <v>2123</v>
+      </c>
+      <c r="S886" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="887" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A887" s="1">
         <v>886</v>
       </c>
@@ -43719,6 +44715,9 @@
       <c r="J887" t="s">
         <v>21</v>
       </c>
+      <c r="L887" t="s">
+        <v>2030</v>
+      </c>
       <c r="M887" t="s">
         <v>1458</v>
       </c>
@@ -43731,8 +44730,17 @@
       <c r="P887" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="888" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q887" t="s">
+        <v>2124</v>
+      </c>
+      <c r="R887" t="s">
+        <v>2125</v>
+      </c>
+      <c r="S887" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="888" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A888" s="1">
         <v>887</v>
       </c>
@@ -43763,6 +44771,9 @@
       <c r="J888" t="s">
         <v>22</v>
       </c>
+      <c r="L888" t="s">
+        <v>2030</v>
+      </c>
       <c r="M888" t="s">
         <v>1458</v>
       </c>
@@ -43775,8 +44786,17 @@
       <c r="P888" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="889" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q888" t="s">
+        <v>2126</v>
+      </c>
+      <c r="R888" t="s">
+        <v>2127</v>
+      </c>
+      <c r="S888" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="889" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A889" s="1">
         <v>888</v>
       </c>
@@ -43807,6 +44827,9 @@
       <c r="J889" t="s">
         <v>22</v>
       </c>
+      <c r="L889" t="s">
+        <v>2030</v>
+      </c>
       <c r="M889" t="s">
         <v>1458</v>
       </c>
@@ -43819,8 +44842,14 @@
       <c r="P889" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="890" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q889" t="s">
+        <v>2128</v>
+      </c>
+      <c r="R889">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="890" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A890" s="1">
         <v>889</v>
       </c>
@@ -43851,6 +44880,9 @@
       <c r="J890" t="s">
         <v>22</v>
       </c>
+      <c r="L890" t="s">
+        <v>2030</v>
+      </c>
       <c r="M890" t="s">
         <v>1458</v>
       </c>
@@ -43863,8 +44895,17 @@
       <c r="P890" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="891" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q890" t="s">
+        <v>826</v>
+      </c>
+      <c r="R890" t="s">
+        <v>2129</v>
+      </c>
+      <c r="S890" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="891" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A891" s="1">
         <v>890</v>
       </c>
@@ -43895,6 +44936,9 @@
       <c r="J891" t="s">
         <v>22</v>
       </c>
+      <c r="L891" t="s">
+        <v>2030</v>
+      </c>
       <c r="M891" t="s">
         <v>1463</v>
       </c>
@@ -43907,8 +44951,17 @@
       <c r="P891" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="892" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q891" t="s">
+        <v>2131</v>
+      </c>
+      <c r="R891" t="s">
+        <v>2130</v>
+      </c>
+      <c r="S891" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="892" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A892" s="1">
         <v>891</v>
       </c>
@@ -43939,6 +44992,9 @@
       <c r="J892" t="s">
         <v>21</v>
       </c>
+      <c r="L892" t="s">
+        <v>2030</v>
+      </c>
       <c r="M892" t="s">
         <v>1467</v>
       </c>
@@ -43951,8 +45007,17 @@
       <c r="P892" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="893" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q892" t="s">
+        <v>2132</v>
+      </c>
+      <c r="R892" t="s">
+        <v>2133</v>
+      </c>
+      <c r="S892" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="893" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A893" s="1">
         <v>892</v>
       </c>
@@ -43983,6 +45048,9 @@
       <c r="J893" t="s">
         <v>22</v>
       </c>
+      <c r="L893" t="s">
+        <v>2030</v>
+      </c>
       <c r="M893" t="s">
         <v>1471</v>
       </c>
@@ -43995,8 +45063,17 @@
       <c r="P893" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="894" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q893" t="s">
+        <v>2134</v>
+      </c>
+      <c r="R893" t="s">
+        <v>2135</v>
+      </c>
+      <c r="S893" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="894" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A894" s="1">
         <v>893</v>
       </c>
@@ -44027,6 +45104,9 @@
       <c r="J894" t="s">
         <v>21</v>
       </c>
+      <c r="L894" t="s">
+        <v>2030</v>
+      </c>
       <c r="M894" t="s">
         <v>1475</v>
       </c>
@@ -44039,8 +45119,17 @@
       <c r="P894" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="895" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q894" t="s">
+        <v>2136</v>
+      </c>
+      <c r="R894" t="s">
+        <v>2137</v>
+      </c>
+      <c r="S894" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="895" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A895" s="1">
         <v>894</v>
       </c>
@@ -44071,6 +45160,9 @@
       <c r="J895" t="s">
         <v>21</v>
       </c>
+      <c r="L895" t="s">
+        <v>2030</v>
+      </c>
       <c r="M895" t="s">
         <v>1475</v>
       </c>
@@ -44083,8 +45175,17 @@
       <c r="P895" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="896" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q895" t="s">
+        <v>2138</v>
+      </c>
+      <c r="R895" t="s">
+        <v>2139</v>
+      </c>
+      <c r="S895" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="896" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A896" s="1">
         <v>895</v>
       </c>
@@ -44115,6 +45216,9 @@
       <c r="J896" t="s">
         <v>22</v>
       </c>
+      <c r="L896" t="s">
+        <v>2030</v>
+      </c>
       <c r="M896" t="s">
         <v>1475</v>
       </c>
@@ -44127,8 +45231,17 @@
       <c r="P896" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="897" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q896" t="s">
+        <v>2140</v>
+      </c>
+      <c r="R896" t="s">
+        <v>2141</v>
+      </c>
+      <c r="S896" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="897" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A897" s="1">
         <v>896</v>
       </c>
@@ -44159,6 +45272,9 @@
       <c r="J897" t="s">
         <v>21</v>
       </c>
+      <c r="L897" t="s">
+        <v>2030</v>
+      </c>
       <c r="M897" t="s">
         <v>1475</v>
       </c>
@@ -44171,8 +45287,17 @@
       <c r="P897" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="898" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q897" t="s">
+        <v>2142</v>
+      </c>
+      <c r="R897" t="s">
+        <v>2143</v>
+      </c>
+      <c r="S897" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="898" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A898" s="1">
         <v>897</v>
       </c>
@@ -44203,6 +45328,9 @@
       <c r="J898" t="s">
         <v>22</v>
       </c>
+      <c r="L898" t="s">
+        <v>2030</v>
+      </c>
       <c r="M898" t="s">
         <v>1479</v>
       </c>
@@ -44215,8 +45343,14 @@
       <c r="P898" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="899" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q898" t="s">
+        <v>2144</v>
+      </c>
+      <c r="R898">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="899" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A899" s="1">
         <v>898</v>
       </c>
@@ -44247,6 +45381,9 @@
       <c r="J899" t="s">
         <v>22</v>
       </c>
+      <c r="L899" t="s">
+        <v>2030</v>
+      </c>
       <c r="M899" t="s">
         <v>1479</v>
       </c>
@@ -44259,8 +45396,14 @@
       <c r="P899" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="900" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q899" t="s">
+        <v>2145</v>
+      </c>
+      <c r="R899">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="900" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A900" s="1">
         <v>899</v>
       </c>
@@ -44291,6 +45434,9 @@
       <c r="J900" t="s">
         <v>21</v>
       </c>
+      <c r="L900" t="s">
+        <v>2030</v>
+      </c>
       <c r="M900" t="s">
         <v>1483</v>
       </c>
@@ -44303,8 +45449,17 @@
       <c r="P900" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="901" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q900" t="s">
+        <v>2146</v>
+      </c>
+      <c r="R900" t="s">
+        <v>2147</v>
+      </c>
+      <c r="S900" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="901" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A901" s="1">
         <v>900</v>
       </c>
@@ -44335,6 +45490,9 @@
       <c r="J901" t="s">
         <v>22</v>
       </c>
+      <c r="L901" t="s">
+        <v>2030</v>
+      </c>
       <c r="M901" t="s">
         <v>1483</v>
       </c>
@@ -44347,8 +45505,17 @@
       <c r="P901" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="902" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q901" t="s">
+        <v>2148</v>
+      </c>
+      <c r="R901" t="s">
+        <v>2149</v>
+      </c>
+      <c r="S901" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="902" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A902" s="1">
         <v>901</v>
       </c>
@@ -44379,6 +45546,9 @@
       <c r="J902" t="s">
         <v>22</v>
       </c>
+      <c r="L902" t="s">
+        <v>2030</v>
+      </c>
       <c r="M902" t="s">
         <v>1483</v>
       </c>
@@ -44391,8 +45561,20 @@
       <c r="P902" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="903" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q902" t="s">
+        <v>2150</v>
+      </c>
+      <c r="R902" t="s">
+        <v>2151</v>
+      </c>
+      <c r="S902" t="s">
+        <v>2056</v>
+      </c>
+      <c r="T902" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="903" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A903" s="1">
         <v>902</v>
       </c>
@@ -44423,6 +45605,9 @@
       <c r="J903" t="s">
         <v>22</v>
       </c>
+      <c r="L903" t="s">
+        <v>2030</v>
+      </c>
       <c r="M903" t="s">
         <v>1483</v>
       </c>
@@ -44435,8 +45620,17 @@
       <c r="P903" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="904" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q903" t="s">
+        <v>2152</v>
+      </c>
+      <c r="R903" t="s">
+        <v>2153</v>
+      </c>
+      <c r="S903" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="904" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A904" s="1">
         <v>903</v>
       </c>
@@ -44467,6 +45661,9 @@
       <c r="J904" t="s">
         <v>22</v>
       </c>
+      <c r="L904" t="s">
+        <v>2030</v>
+      </c>
       <c r="M904" t="s">
         <v>1483</v>
       </c>
@@ -44479,8 +45676,17 @@
       <c r="P904" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="905" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q904" t="s">
+        <v>2154</v>
+      </c>
+      <c r="R904" t="s">
+        <v>2155</v>
+      </c>
+      <c r="S904" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="905" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A905" s="1">
         <v>904</v>
       </c>
@@ -44511,6 +45717,9 @@
       <c r="J905" t="s">
         <v>22</v>
       </c>
+      <c r="L905" t="s">
+        <v>2030</v>
+      </c>
       <c r="M905" t="s">
         <v>1483</v>
       </c>
@@ -44523,8 +45732,17 @@
       <c r="P905" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="906" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q905" t="s">
+        <v>2156</v>
+      </c>
+      <c r="R905" t="s">
+        <v>820</v>
+      </c>
+      <c r="S905" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="906" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A906" s="1">
         <v>905</v>
       </c>
@@ -44555,6 +45773,9 @@
       <c r="J906" t="s">
         <v>22</v>
       </c>
+      <c r="L906" t="s">
+        <v>2030</v>
+      </c>
       <c r="M906" t="s">
         <v>1483</v>
       </c>
@@ -44567,8 +45788,17 @@
       <c r="P906" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="907" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q906" t="s">
+        <v>2159</v>
+      </c>
+      <c r="R906" t="s">
+        <v>2158</v>
+      </c>
+      <c r="S906" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="907" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A907" s="1">
         <v>906</v>
       </c>
@@ -44599,6 +45829,9 @@
       <c r="J907" t="s">
         <v>22</v>
       </c>
+      <c r="L907" t="s">
+        <v>2030</v>
+      </c>
       <c r="M907" t="s">
         <v>1483</v>
       </c>
@@ -44611,8 +45844,17 @@
       <c r="P907" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="908" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q907" t="s">
+        <v>826</v>
+      </c>
+      <c r="R907" t="s">
+        <v>2129</v>
+      </c>
+      <c r="S907" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="908" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A908" s="1">
         <v>907</v>
       </c>
@@ -44643,6 +45885,9 @@
       <c r="J908" t="s">
         <v>22</v>
       </c>
+      <c r="L908" t="s">
+        <v>2030</v>
+      </c>
       <c r="M908" t="s">
         <v>1487</v>
       </c>
@@ -44655,8 +45900,17 @@
       <c r="P908" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="909" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q908" t="s">
+        <v>2160</v>
+      </c>
+      <c r="R908" t="s">
+        <v>2161</v>
+      </c>
+      <c r="S908" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="909" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A909" s="1">
         <v>908</v>
       </c>
@@ -44687,6 +45941,9 @@
       <c r="J909" t="s">
         <v>22</v>
       </c>
+      <c r="L909" t="s">
+        <v>2030</v>
+      </c>
       <c r="M909" t="s">
         <v>1487</v>
       </c>
@@ -44699,8 +45956,17 @@
       <c r="P909" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="910" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q909" t="s">
+        <v>826</v>
+      </c>
+      <c r="R909" t="s">
+        <v>2129</v>
+      </c>
+      <c r="S909" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="910" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A910" s="1">
         <v>909</v>
       </c>
@@ -44731,6 +45997,9 @@
       <c r="J910" t="s">
         <v>22</v>
       </c>
+      <c r="L910" t="s">
+        <v>2030</v>
+      </c>
       <c r="M910" t="s">
         <v>1491</v>
       </c>
@@ -44743,8 +46012,14 @@
       <c r="P910" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="911" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q910" t="s">
+        <v>2162</v>
+      </c>
+      <c r="R910" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="911" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A911" s="1">
         <v>910</v>
       </c>
@@ -44775,6 +46050,9 @@
       <c r="J911" t="s">
         <v>22</v>
       </c>
+      <c r="L911" t="s">
+        <v>2030</v>
+      </c>
       <c r="M911" t="s">
         <v>1495</v>
       </c>
@@ -44787,8 +46065,14 @@
       <c r="P911" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="912" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q911" t="s">
+        <v>2163</v>
+      </c>
+      <c r="R911">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="912" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A912" s="1">
         <v>911</v>
       </c>
@@ -44819,6 +46103,9 @@
       <c r="J912" t="s">
         <v>22</v>
       </c>
+      <c r="L912" t="s">
+        <v>2030</v>
+      </c>
       <c r="M912" t="s">
         <v>1499</v>
       </c>
@@ -44831,8 +46118,17 @@
       <c r="P912" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="913" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q912" t="s">
+        <v>2167</v>
+      </c>
+      <c r="R912" t="s">
+        <v>2168</v>
+      </c>
+      <c r="S912" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="913" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A913" s="1">
         <v>912</v>
       </c>
@@ -44863,6 +46159,9 @@
       <c r="J913" t="s">
         <v>22</v>
       </c>
+      <c r="L913" t="s">
+        <v>2030</v>
+      </c>
       <c r="M913" t="s">
         <v>1499</v>
       </c>
@@ -44875,8 +46174,17 @@
       <c r="P913" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="914" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q913" t="s">
+        <v>2169</v>
+      </c>
+      <c r="R913" t="s">
+        <v>2170</v>
+      </c>
+      <c r="S913" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="914" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A914" s="1">
         <v>913</v>
       </c>
@@ -44907,6 +46215,9 @@
       <c r="J914" t="s">
         <v>22</v>
       </c>
+      <c r="L914" t="s">
+        <v>2030</v>
+      </c>
       <c r="M914" t="s">
         <v>1499</v>
       </c>
@@ -44919,8 +46230,17 @@
       <c r="P914" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="915" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q914" t="s">
+        <v>2171</v>
+      </c>
+      <c r="R914" t="s">
+        <v>2172</v>
+      </c>
+      <c r="S914" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="915" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A915" s="1">
         <v>914</v>
       </c>
@@ -44951,6 +46271,9 @@
       <c r="J915" t="s">
         <v>22</v>
       </c>
+      <c r="L915" t="s">
+        <v>2030</v>
+      </c>
       <c r="M915" t="s">
         <v>1499</v>
       </c>
@@ -44963,8 +46286,14 @@
       <c r="P915" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="916" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q915" t="s">
+        <v>2173</v>
+      </c>
+      <c r="R915">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="916" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A916" s="1">
         <v>915</v>
       </c>
@@ -44995,6 +46324,9 @@
       <c r="J916" t="s">
         <v>22</v>
       </c>
+      <c r="L916" t="s">
+        <v>2030</v>
+      </c>
       <c r="M916" t="s">
         <v>1499</v>
       </c>
@@ -45007,8 +46339,17 @@
       <c r="P916" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="917" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q916" t="s">
+        <v>2174</v>
+      </c>
+      <c r="R916" t="s">
+        <v>2175</v>
+      </c>
+      <c r="S916" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="917" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A917" s="1">
         <v>916</v>
       </c>
@@ -45039,6 +46380,9 @@
       <c r="J917" t="s">
         <v>22</v>
       </c>
+      <c r="L917" t="s">
+        <v>2030</v>
+      </c>
       <c r="M917" t="s">
         <v>1499</v>
       </c>
@@ -45051,8 +46395,14 @@
       <c r="P917" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="918" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q917" t="s">
+        <v>2176</v>
+      </c>
+      <c r="R917">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="918" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A918" s="1">
         <v>917</v>
       </c>
@@ -45083,6 +46433,9 @@
       <c r="J918" t="s">
         <v>22</v>
       </c>
+      <c r="L918" t="s">
+        <v>2030</v>
+      </c>
       <c r="M918" t="s">
         <v>1499</v>
       </c>
@@ -45095,8 +46448,14 @@
       <c r="P918" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="919" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q918" t="s">
+        <v>2166</v>
+      </c>
+      <c r="R918">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="919" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A919" s="1">
         <v>918</v>
       </c>
@@ -45127,6 +46486,9 @@
       <c r="J919" t="s">
         <v>22</v>
       </c>
+      <c r="L919" t="s">
+        <v>2030</v>
+      </c>
       <c r="M919" t="s">
         <v>1499</v>
       </c>
@@ -45139,8 +46501,17 @@
       <c r="P919" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="920" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q919" t="s">
+        <v>2164</v>
+      </c>
+      <c r="R919" t="s">
+        <v>2165</v>
+      </c>
+      <c r="S919" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="920" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A920" s="1">
         <v>919</v>
       </c>
@@ -45171,6 +46542,9 @@
       <c r="J920" t="s">
         <v>22</v>
       </c>
+      <c r="L920" t="s">
+        <v>2030</v>
+      </c>
       <c r="M920" t="s">
         <v>1499</v>
       </c>
@@ -45183,8 +46557,14 @@
       <c r="P920" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="921" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q920" t="s">
+        <v>2177</v>
+      </c>
+      <c r="R920" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="921" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A921" s="1">
         <v>920</v>
       </c>
@@ -45215,6 +46595,9 @@
       <c r="J921" t="s">
         <v>22</v>
       </c>
+      <c r="L921" t="s">
+        <v>2030</v>
+      </c>
       <c r="M921" t="s">
         <v>1499</v>
       </c>
@@ -45227,8 +46610,14 @@
       <c r="P921" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="922" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q921" t="s">
+        <v>2178</v>
+      </c>
+      <c r="R921" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="922" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A922" s="1">
         <v>921</v>
       </c>
@@ -45259,6 +46648,9 @@
       <c r="J922" t="s">
         <v>22</v>
       </c>
+      <c r="L922" t="s">
+        <v>2030</v>
+      </c>
       <c r="M922" t="s">
         <v>1499</v>
       </c>
@@ -45271,8 +46663,14 @@
       <c r="P922" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="923" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q922" t="s">
+        <v>2179</v>
+      </c>
+      <c r="R922">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="923" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A923" s="1">
         <v>922</v>
       </c>
@@ -45303,6 +46701,9 @@
       <c r="J923" t="s">
         <v>22</v>
       </c>
+      <c r="L923" t="s">
+        <v>2030</v>
+      </c>
       <c r="M923" t="s">
         <v>1499</v>
       </c>
@@ -45315,8 +46716,17 @@
       <c r="P923" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="924" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q923" t="s">
+        <v>2180</v>
+      </c>
+      <c r="R923" t="s">
+        <v>2181</v>
+      </c>
+      <c r="S923" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="924" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A924" s="1">
         <v>923</v>
       </c>
@@ -45347,6 +46757,9 @@
       <c r="J924" t="s">
         <v>22</v>
       </c>
+      <c r="L924" t="s">
+        <v>2030</v>
+      </c>
       <c r="M924" t="s">
         <v>1499</v>
       </c>
@@ -45359,8 +46772,17 @@
       <c r="P924" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="925" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q924" t="s">
+        <v>2184</v>
+      </c>
+      <c r="R924" t="s">
+        <v>2183</v>
+      </c>
+      <c r="S924" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="925" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A925" s="1">
         <v>924</v>
       </c>
@@ -45391,6 +46813,9 @@
       <c r="J925" t="s">
         <v>22</v>
       </c>
+      <c r="L925" t="s">
+        <v>2030</v>
+      </c>
       <c r="M925" t="s">
         <v>1499</v>
       </c>
@@ -45403,8 +46828,17 @@
       <c r="P925" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="926" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q925" t="s">
+        <v>2182</v>
+      </c>
+      <c r="R925" t="s">
+        <v>2182</v>
+      </c>
+      <c r="S925" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="926" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A926" s="1">
         <v>925</v>
       </c>
@@ -45435,6 +46869,9 @@
       <c r="J926" t="s">
         <v>22</v>
       </c>
+      <c r="L926" t="s">
+        <v>2030</v>
+      </c>
       <c r="M926" t="s">
         <v>1504</v>
       </c>
@@ -45447,8 +46884,17 @@
       <c r="P926" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="927" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q926" t="s">
+        <v>826</v>
+      </c>
+      <c r="R926" t="s">
+        <v>2129</v>
+      </c>
+      <c r="S926" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="927" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A927" s="1">
         <v>926</v>
       </c>
@@ -45479,6 +46925,9 @@
       <c r="J927" t="s">
         <v>21</v>
       </c>
+      <c r="L927" t="s">
+        <v>2030</v>
+      </c>
       <c r="M927" t="s">
         <v>1508</v>
       </c>
@@ -45491,8 +46940,17 @@
       <c r="P927" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="928" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q927" s="3" t="s">
+        <v>2185</v>
+      </c>
+      <c r="R927" t="s">
+        <v>2186</v>
+      </c>
+      <c r="S927" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="928" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A928" s="1">
         <v>927</v>
       </c>
@@ -45523,6 +46981,9 @@
       <c r="J928" t="s">
         <v>22</v>
       </c>
+      <c r="L928" t="s">
+        <v>2030</v>
+      </c>
       <c r="M928" t="s">
         <v>1512</v>
       </c>
@@ -45535,8 +46996,17 @@
       <c r="P928" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="929" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q928" t="s">
+        <v>2187</v>
+      </c>
+      <c r="R928" t="s">
+        <v>2188</v>
+      </c>
+      <c r="S928" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="929" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A929" s="1">
         <v>928</v>
       </c>
@@ -45567,6 +47037,9 @@
       <c r="J929" t="s">
         <v>22</v>
       </c>
+      <c r="L929" t="s">
+        <v>2030</v>
+      </c>
       <c r="M929" t="s">
         <v>1516</v>
       </c>
@@ -45579,8 +47052,14 @@
       <c r="P929" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="930" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q929" t="s">
+        <v>2189</v>
+      </c>
+      <c r="R929" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="930" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A930" s="1">
         <v>929</v>
       </c>
@@ -45611,6 +47090,9 @@
       <c r="J930" t="s">
         <v>22</v>
       </c>
+      <c r="L930" t="s">
+        <v>2030</v>
+      </c>
       <c r="M930" t="s">
         <v>1516</v>
       </c>
@@ -45623,8 +47105,17 @@
       <c r="P930" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="931" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q930" t="s">
+        <v>2190</v>
+      </c>
+      <c r="R930" t="s">
+        <v>2191</v>
+      </c>
+      <c r="S930" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="931" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A931" s="1">
         <v>930</v>
       </c>
@@ -45655,6 +47146,9 @@
       <c r="J931" t="s">
         <v>22</v>
       </c>
+      <c r="L931" t="s">
+        <v>2030</v>
+      </c>
       <c r="M931" t="s">
         <v>1520</v>
       </c>
@@ -45667,8 +47161,17 @@
       <c r="P931" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="932" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q931" t="s">
+        <v>2192</v>
+      </c>
+      <c r="R931" t="s">
+        <v>2193</v>
+      </c>
+      <c r="S931" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="932" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A932" s="1">
         <v>931</v>
       </c>
@@ -45699,6 +47202,9 @@
       <c r="J932" t="s">
         <v>22</v>
       </c>
+      <c r="L932" t="s">
+        <v>2030</v>
+      </c>
       <c r="M932" t="s">
         <v>1520</v>
       </c>
@@ -45711,8 +47217,14 @@
       <c r="P932" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="933" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q932" t="s">
+        <v>2194</v>
+      </c>
+      <c r="R932" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="933" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A933" s="1">
         <v>932</v>
       </c>
@@ -45743,6 +47255,9 @@
       <c r="J933" t="s">
         <v>22</v>
       </c>
+      <c r="L933" t="s">
+        <v>2030</v>
+      </c>
       <c r="M933" t="s">
         <v>1520</v>
       </c>
@@ -45755,8 +47270,14 @@
       <c r="P933" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="934" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q933" t="s">
+        <v>820</v>
+      </c>
+      <c r="R933" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="934" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A934" s="1">
         <v>933</v>
       </c>
@@ -45787,6 +47308,9 @@
       <c r="J934" t="s">
         <v>22</v>
       </c>
+      <c r="L934" t="s">
+        <v>2030</v>
+      </c>
       <c r="M934" t="s">
         <v>1520</v>
       </c>
@@ -45799,8 +47323,14 @@
       <c r="P934" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="935" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q934" t="s">
+        <v>2195</v>
+      </c>
+      <c r="R934" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="935" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A935" s="1">
         <v>934</v>
       </c>
@@ -45831,6 +47361,9 @@
       <c r="J935" t="s">
         <v>22</v>
       </c>
+      <c r="L935" t="s">
+        <v>2030</v>
+      </c>
       <c r="M935" t="s">
         <v>1520</v>
       </c>
@@ -45843,8 +47376,17 @@
       <c r="P935" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="936" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q935" t="s">
+        <v>826</v>
+      </c>
+      <c r="R935" t="s">
+        <v>2129</v>
+      </c>
+      <c r="S935" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="936" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A936" s="1">
         <v>935</v>
       </c>
@@ -45875,6 +47417,9 @@
       <c r="J936" t="s">
         <v>22</v>
       </c>
+      <c r="L936" t="s">
+        <v>2030</v>
+      </c>
       <c r="M936" t="s">
         <v>1520</v>
       </c>
@@ -45887,8 +47432,17 @@
       <c r="P936" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="937" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q936" t="s">
+        <v>2196</v>
+      </c>
+      <c r="R936" t="s">
+        <v>2197</v>
+      </c>
+      <c r="S936" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="937" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A937" s="1">
         <v>936</v>
       </c>
@@ -45919,6 +47473,9 @@
       <c r="J937" t="s">
         <v>22</v>
       </c>
+      <c r="L937" t="s">
+        <v>2030</v>
+      </c>
       <c r="M937" t="s">
         <v>1525</v>
       </c>
@@ -45931,8 +47488,17 @@
       <c r="P937" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="938" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q937" t="s">
+        <v>2236</v>
+      </c>
+      <c r="R937" t="s">
+        <v>2197</v>
+      </c>
+      <c r="S937" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="938" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A938" s="1">
         <v>937</v>
       </c>
@@ -45963,6 +47529,9 @@
       <c r="J938" t="s">
         <v>22</v>
       </c>
+      <c r="L938" t="s">
+        <v>2030</v>
+      </c>
       <c r="M938" t="s">
         <v>1529</v>
       </c>
@@ -45975,8 +47544,14 @@
       <c r="P938" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="939" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q938" s="3" t="s">
+        <v>2198</v>
+      </c>
+      <c r="R938" s="3" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="939" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A939" s="1">
         <v>938</v>
       </c>
@@ -46007,6 +47582,9 @@
       <c r="J939" t="s">
         <v>22</v>
       </c>
+      <c r="L939" t="s">
+        <v>2030</v>
+      </c>
       <c r="M939" t="s">
         <v>1529</v>
       </c>
@@ -46019,8 +47597,14 @@
       <c r="P939" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="940" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q939" s="3" t="s">
+        <v>2199</v>
+      </c>
+      <c r="R939" s="5">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="940" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A940" s="1">
         <v>939</v>
       </c>
@@ -46051,6 +47635,9 @@
       <c r="J940" t="s">
         <v>22</v>
       </c>
+      <c r="L940" t="s">
+        <v>2030</v>
+      </c>
       <c r="M940" t="s">
         <v>1529</v>
       </c>
@@ -46063,8 +47650,17 @@
       <c r="P940" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="941" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q940" s="3" t="s">
+        <v>2200</v>
+      </c>
+      <c r="R940" s="5" t="s">
+        <v>2201</v>
+      </c>
+      <c r="S940" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="941" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A941" s="1">
         <v>940</v>
       </c>
@@ -46095,6 +47691,9 @@
       <c r="J941" t="s">
         <v>22</v>
       </c>
+      <c r="L941" t="s">
+        <v>2030</v>
+      </c>
       <c r="M941" t="s">
         <v>1529</v>
       </c>
@@ -46107,8 +47706,14 @@
       <c r="P941" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="942" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q941" s="3" t="s">
+        <v>2202</v>
+      </c>
+      <c r="R941" s="5" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="942" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A942" s="1">
         <v>941</v>
       </c>
@@ -46139,6 +47744,9 @@
       <c r="J942" t="s">
         <v>22</v>
       </c>
+      <c r="L942" t="s">
+        <v>2030</v>
+      </c>
       <c r="M942" t="s">
         <v>1529</v>
       </c>
@@ -46151,8 +47759,14 @@
       <c r="P942" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="943" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q942" s="3" t="s">
+        <v>2203</v>
+      </c>
+      <c r="R942" s="5" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="943" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A943" s="1">
         <v>942</v>
       </c>
@@ -46183,6 +47797,9 @@
       <c r="J943" t="s">
         <v>22</v>
       </c>
+      <c r="L943" t="s">
+        <v>2030</v>
+      </c>
       <c r="M943" t="s">
         <v>1529</v>
       </c>
@@ -46195,8 +47812,17 @@
       <c r="P943" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="944" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q943" s="5" t="s">
+        <v>2204</v>
+      </c>
+      <c r="R943" s="5" t="s">
+        <v>2129</v>
+      </c>
+      <c r="S943" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="944" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A944" s="1">
         <v>943</v>
       </c>
@@ -46227,6 +47853,9 @@
       <c r="J944" t="s">
         <v>22</v>
       </c>
+      <c r="L944" t="s">
+        <v>2030</v>
+      </c>
       <c r="M944" t="s">
         <v>1533</v>
       </c>
@@ -46239,8 +47868,17 @@
       <c r="P944" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="945" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q944" s="3" t="s">
+        <v>2205</v>
+      </c>
+      <c r="R944" s="5" t="s">
+        <v>2212</v>
+      </c>
+      <c r="S944" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="945" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A945" s="1">
         <v>944</v>
       </c>
@@ -46271,6 +47909,9 @@
       <c r="J945" t="s">
         <v>22</v>
       </c>
+      <c r="L945" t="s">
+        <v>2030</v>
+      </c>
       <c r="M945" t="s">
         <v>1533</v>
       </c>
@@ -46283,8 +47924,17 @@
       <c r="P945" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="946" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q945" s="3" t="s">
+        <v>2206</v>
+      </c>
+      <c r="R945" s="5" t="s">
+        <v>2207</v>
+      </c>
+      <c r="S945" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="946" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A946" s="1">
         <v>945</v>
       </c>
@@ -46315,6 +47965,9 @@
       <c r="J946" t="s">
         <v>22</v>
       </c>
+      <c r="L946" t="s">
+        <v>2030</v>
+      </c>
       <c r="M946" t="s">
         <v>1533</v>
       </c>
@@ -46327,8 +47980,17 @@
       <c r="P946" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="947" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q946" s="6" t="s">
+        <v>2208</v>
+      </c>
+      <c r="R946" s="5" t="s">
+        <v>2211</v>
+      </c>
+      <c r="S946" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="947" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A947" s="1">
         <v>946</v>
       </c>
@@ -46359,6 +48021,9 @@
       <c r="J947" t="s">
         <v>22</v>
       </c>
+      <c r="L947" t="s">
+        <v>2030</v>
+      </c>
       <c r="M947" t="s">
         <v>1537</v>
       </c>
@@ -46371,8 +48036,17 @@
       <c r="P947" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="948" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q947" s="3" t="s">
+        <v>2209</v>
+      </c>
+      <c r="R947" s="5" t="s">
+        <v>2210</v>
+      </c>
+      <c r="S947" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="948" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A948" s="1">
         <v>947</v>
       </c>
@@ -46403,6 +48077,9 @@
       <c r="J948" t="s">
         <v>22</v>
       </c>
+      <c r="L948" t="s">
+        <v>2030</v>
+      </c>
       <c r="M948" t="s">
         <v>1537</v>
       </c>
@@ -46415,8 +48092,14 @@
       <c r="P948" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="949" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q948" s="3" t="s">
+        <v>2213</v>
+      </c>
+      <c r="R948" s="5">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="949" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A949" s="1">
         <v>948</v>
       </c>
@@ -46447,6 +48130,9 @@
       <c r="J949" t="s">
         <v>22</v>
       </c>
+      <c r="L949" t="s">
+        <v>2030</v>
+      </c>
       <c r="M949" t="s">
         <v>1541</v>
       </c>
@@ -46459,8 +48145,17 @@
       <c r="P949" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="950" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q949" s="3" t="s">
+        <v>2214</v>
+      </c>
+      <c r="R949" s="5" t="s">
+        <v>2215</v>
+      </c>
+      <c r="S949" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="950" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A950" s="1">
         <v>949</v>
       </c>
@@ -46491,6 +48186,9 @@
       <c r="J950" t="s">
         <v>22</v>
       </c>
+      <c r="L950" t="s">
+        <v>2030</v>
+      </c>
       <c r="M950" t="s">
         <v>623</v>
       </c>
@@ -46503,8 +48201,17 @@
       <c r="P950" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="951" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q950" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="R950" s="5" t="s">
+        <v>2051</v>
+      </c>
+      <c r="S950" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="951" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A951" s="1">
         <v>950</v>
       </c>
@@ -46535,6 +48242,9 @@
       <c r="J951" t="s">
         <v>22</v>
       </c>
+      <c r="L951" t="s">
+        <v>2030</v>
+      </c>
       <c r="M951" t="s">
         <v>1546</v>
       </c>
@@ -46547,8 +48257,14 @@
       <c r="P951" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="952" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q951" s="3" t="s">
+        <v>2216</v>
+      </c>
+      <c r="R951" s="5" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="952" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A952" s="1">
         <v>951</v>
       </c>
@@ -46579,6 +48295,9 @@
       <c r="J952" t="s">
         <v>22</v>
       </c>
+      <c r="L952" t="s">
+        <v>2030</v>
+      </c>
       <c r="M952" t="s">
         <v>1546</v>
       </c>
@@ -46591,8 +48310,17 @@
       <c r="P952" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="953" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q952" s="3" t="s">
+        <v>2196</v>
+      </c>
+      <c r="R952" s="5" t="s">
+        <v>2197</v>
+      </c>
+      <c r="S952" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="953" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A953" s="1">
         <v>952</v>
       </c>
@@ -46623,6 +48351,9 @@
       <c r="J953" t="s">
         <v>22</v>
       </c>
+      <c r="L953" t="s">
+        <v>2030</v>
+      </c>
       <c r="M953" t="s">
         <v>1550</v>
       </c>
@@ -46635,8 +48366,14 @@
       <c r="P953" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="954" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q953" s="3" t="s">
+        <v>2217</v>
+      </c>
+      <c r="R953" s="3" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="954" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A954" s="1">
         <v>953</v>
       </c>
@@ -46667,6 +48404,9 @@
       <c r="J954" t="s">
         <v>22</v>
       </c>
+      <c r="L954" t="s">
+        <v>2030</v>
+      </c>
       <c r="M954" t="s">
         <v>1550</v>
       </c>
@@ -46679,8 +48419,14 @@
       <c r="P954" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="955" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q954" s="3" t="s">
+        <v>2218</v>
+      </c>
+      <c r="R954" s="5" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="955" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A955" s="1">
         <v>954</v>
       </c>
@@ -46711,6 +48457,9 @@
       <c r="J955" t="s">
         <v>22</v>
       </c>
+      <c r="L955" t="s">
+        <v>2030</v>
+      </c>
       <c r="M955" t="s">
         <v>1384</v>
       </c>
@@ -46723,8 +48472,14 @@
       <c r="P955" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="956" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q955" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="R955" s="5" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="956" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A956" s="1">
         <v>955</v>
       </c>
@@ -46755,6 +48510,9 @@
       <c r="J956" t="s">
         <v>22</v>
       </c>
+      <c r="L956" t="s">
+        <v>2030</v>
+      </c>
       <c r="M956" t="s">
         <v>1555</v>
       </c>
@@ -46767,8 +48525,17 @@
       <c r="P956" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="957" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q956" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="R956" s="5" t="s">
+        <v>2051</v>
+      </c>
+      <c r="S956" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="957" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A957" s="1">
         <v>956</v>
       </c>
@@ -46799,6 +48566,9 @@
       <c r="J957" t="s">
         <v>22</v>
       </c>
+      <c r="L957" t="s">
+        <v>2030</v>
+      </c>
       <c r="M957" t="s">
         <v>1559</v>
       </c>
@@ -46811,8 +48581,17 @@
       <c r="P957" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="958" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q957" s="3" t="s">
+        <v>2220</v>
+      </c>
+      <c r="R957" s="5" t="s">
+        <v>2221</v>
+      </c>
+      <c r="S957" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="958" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A958" s="1">
         <v>957</v>
       </c>
@@ -46843,6 +48622,9 @@
       <c r="J958" t="s">
         <v>22</v>
       </c>
+      <c r="L958" t="s">
+        <v>2030</v>
+      </c>
       <c r="M958" t="s">
         <v>1563</v>
       </c>
@@ -46855,8 +48637,14 @@
       <c r="P958" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="959" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q958" s="3" t="s">
+        <v>2222</v>
+      </c>
+      <c r="R958" s="5" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="959" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A959" s="1">
         <v>958</v>
       </c>
@@ -46887,6 +48675,9 @@
       <c r="J959" t="s">
         <v>22</v>
       </c>
+      <c r="L959" t="s">
+        <v>2030</v>
+      </c>
       <c r="M959" t="s">
         <v>1405</v>
       </c>
@@ -46899,8 +48690,17 @@
       <c r="P959" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="960" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q959" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="R959" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="S959" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="960" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A960" s="1">
         <v>959</v>
       </c>
@@ -46931,6 +48731,9 @@
       <c r="J960" t="s">
         <v>22</v>
       </c>
+      <c r="L960" t="s">
+        <v>2030</v>
+      </c>
       <c r="M960" t="s">
         <v>1568</v>
       </c>
@@ -46943,8 +48746,17 @@
       <c r="P960" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="961" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q960" s="3" t="s">
+        <v>2102</v>
+      </c>
+      <c r="R960" s="5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="S960" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="961" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A961" s="1">
         <v>960</v>
       </c>
@@ -46975,6 +48787,9 @@
       <c r="J961" t="s">
         <v>22</v>
       </c>
+      <c r="L961" t="s">
+        <v>2030</v>
+      </c>
       <c r="M961" t="s">
         <v>1409</v>
       </c>
@@ -46987,8 +48802,14 @@
       <c r="P961" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="962" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q961" s="3" t="s">
+        <v>2223</v>
+      </c>
+      <c r="R961" s="5" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="962" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A962" s="1">
         <v>961</v>
       </c>
@@ -47019,6 +48840,9 @@
       <c r="J962" t="s">
         <v>22</v>
       </c>
+      <c r="L962" t="s">
+        <v>2030</v>
+      </c>
       <c r="M962" t="s">
         <v>1401</v>
       </c>
@@ -47031,8 +48855,14 @@
       <c r="P962" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="963" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q962" s="3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="R962" s="5" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="963" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A963" s="1">
         <v>962</v>
       </c>
@@ -47063,6 +48893,9 @@
       <c r="J963" t="s">
         <v>22</v>
       </c>
+      <c r="L963" t="s">
+        <v>2030</v>
+      </c>
       <c r="M963" t="s">
         <v>1401</v>
       </c>
@@ -47075,8 +48908,17 @@
       <c r="P963" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="964" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q963" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="R963" s="5" t="s">
+        <v>2051</v>
+      </c>
+      <c r="S963" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="964" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A964" s="1">
         <v>963</v>
       </c>
@@ -47107,6 +48949,9 @@
       <c r="J964" t="s">
         <v>22</v>
       </c>
+      <c r="L964" t="s">
+        <v>2030</v>
+      </c>
       <c r="M964" t="s">
         <v>1576</v>
       </c>
@@ -47119,8 +48964,17 @@
       <c r="P964" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="965" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q964" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="R964" s="5" t="s">
+        <v>2129</v>
+      </c>
+      <c r="S964" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="965" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A965" s="1">
         <v>964</v>
       </c>
@@ -47151,6 +49005,9 @@
       <c r="J965" t="s">
         <v>22</v>
       </c>
+      <c r="L965" t="s">
+        <v>2030</v>
+      </c>
       <c r="M965" t="s">
         <v>1580</v>
       </c>
@@ -47163,8 +49020,17 @@
       <c r="P965" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="966" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q965" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="R965" s="5" t="s">
+        <v>2228</v>
+      </c>
+      <c r="S965" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="966" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A966" s="1">
         <v>965</v>
       </c>
@@ -47195,6 +49061,9 @@
       <c r="J966" t="s">
         <v>22</v>
       </c>
+      <c r="L966" t="s">
+        <v>2030</v>
+      </c>
       <c r="M966" t="s">
         <v>1584</v>
       </c>
@@ -47207,8 +49076,14 @@
       <c r="P966" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="967" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q966" s="3" t="s">
+        <v>2229</v>
+      </c>
+      <c r="R966" s="5" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="967" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A967" s="1">
         <v>966</v>
       </c>
@@ -47239,6 +49114,9 @@
       <c r="J967" t="s">
         <v>22</v>
       </c>
+      <c r="L967" t="s">
+        <v>2030</v>
+      </c>
       <c r="M967" t="s">
         <v>1584</v>
       </c>
@@ -47251,8 +49129,17 @@
       <c r="P967" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="968" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q967" s="3" t="s">
+        <v>2231</v>
+      </c>
+      <c r="R967" s="5" t="s">
+        <v>2235</v>
+      </c>
+      <c r="S967" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="968" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A968" s="1">
         <v>967</v>
       </c>
@@ -47283,6 +49170,9 @@
       <c r="J968" t="s">
         <v>22</v>
       </c>
+      <c r="L968" t="s">
+        <v>2030</v>
+      </c>
       <c r="M968" t="s">
         <v>1584</v>
       </c>
@@ -47295,8 +49185,14 @@
       <c r="P968" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="969" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q968" s="3" t="s">
+        <v>2232</v>
+      </c>
+      <c r="R968" s="5">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="969" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A969" s="1">
         <v>968</v>
       </c>
@@ -47327,6 +49223,9 @@
       <c r="J969" t="s">
         <v>22</v>
       </c>
+      <c r="L969" t="s">
+        <v>2030</v>
+      </c>
       <c r="M969" t="s">
         <v>1588</v>
       </c>
@@ -47339,8 +49238,17 @@
       <c r="P969" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="970" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q969" s="7" t="s">
+        <v>2233</v>
+      </c>
+      <c r="R969" s="7" t="s">
+        <v>2234</v>
+      </c>
+      <c r="S969" s="4" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="970" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A970">
         <v>969</v>
       </c>
@@ -47381,7 +49289,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="971" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A971">
         <v>970</v>
       </c>
@@ -47422,7 +49330,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="972" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A972">
         <v>971</v>
       </c>
@@ -47463,7 +49371,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="973" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A973">
         <v>972</v>
       </c>
@@ -47504,7 +49412,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="974" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A974">
         <v>973</v>
       </c>
@@ -47545,7 +49453,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="975" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A975">
         <v>974</v>
       </c>
@@ -47586,7 +49494,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="976" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A976">
         <v>975</v>
       </c>
@@ -64905,6 +66813,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>